--- a/files/lecturer_info.xlsx
+++ b/files/lecturer_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AsusTuf\Desktop\hse bot\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53956618-1DF3-4C16-8563-500B71B921F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A28D36-6F99-4394-86A2-631355837694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="912" windowWidth="20256" windowHeight="10548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="1692" windowWidth="20256" windowHeight="10548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>Предметы:</t>
   </si>
@@ -87,12 +87,6 @@
     <t>etsaplina@hse.ru</t>
   </si>
   <si>
-    <t>Оценки за 1 и 2 полугодия = 0,25 · Кр¬1 + 0,25 · Кр¬2 + 0,5 · Экз</t>
-  </si>
-  <si>
-    <t>Итоговая оценка = 0,125 · (Кр¬1 + Кр¬2 + Кр¬3 + Кр¬4) + 0,25 · (Экз1 + Экз2)</t>
-  </si>
-  <si>
     <t>Итоговая оценка = 0,2 · (К1) + 0,3 · (К2) + 0,5 · (К3)</t>
   </si>
   <si>
@@ -174,16 +168,79 @@
     <t>Итоговая оценка = 0,3 · д/з + 0,7 · тест</t>
   </si>
   <si>
+    <t>Оценки за 1 и 2 полугодия = 0,25 · Кр1 + 0,25 · Кр2 + 0,5 · Экз</t>
+  </si>
+  <si>
+    <t>Итоговая оценка = 0,125 · (Кр1 + Кр2 + Кр3 + Кр4) + 0,25 · (Экз1 + Экз2)</t>
+  </si>
+  <si>
+    <t>vsubbotina@hse.ru</t>
+  </si>
+  <si>
+    <t>nmilashchenko@hse.ru</t>
+  </si>
+  <si>
+    <t>eefremova@hse.ru</t>
+  </si>
+  <si>
+    <t>sstarodubov@hse.ru</t>
+  </si>
+  <si>
+    <t>imalinina@hse.ru</t>
+  </si>
+  <si>
+    <t>mchernitskaya@hse.ru</t>
+  </si>
+  <si>
+    <t>imodina@hse.ru</t>
+  </si>
+  <si>
+    <t>sokisheva@hse.ru</t>
+  </si>
+  <si>
+    <t>Окишева Светлана Геннадьевна</t>
+  </si>
+  <si>
+    <t>Модина Ирина Алексеевна</t>
+  </si>
+  <si>
+    <t>Черницкая Майя Борисовна</t>
+  </si>
+  <si>
+    <t>Малинина Ирина Александровна</t>
+  </si>
+  <si>
+    <t>Стародубов Станислав Витальевич</t>
+  </si>
+  <si>
+    <t>Зуева Елена Евгеньевна</t>
+  </si>
+  <si>
+    <t>Милащенко Наталья Геннадьевна</t>
+  </si>
+  <si>
+    <t>Субботина Валерия Игоревна</t>
+  </si>
+  <si>
+    <t>Итоговая оценка = 0,7 · накоп + 0,3 · экз</t>
+  </si>
+  <si>
+    <t>Английский язык</t>
+  </si>
+  <si>
+    <t>Текущее оценивание(накоп) = 0,2 · Активность, работа в классе + 0,25 · Письменные работы + 0,25 · Ответы по дз</t>
+  </si>
+  <si>
+    <t>Оценка за 2 модуль = 0,15 · Опросы + 0,15 · Опросы + 0,1 · Решение задач + 0,1 · Решение задач + 0,5 · Экзамен</t>
+  </si>
+  <si>
+    <t>Оценка за 4 модуль = 0,1 · Опросы + 0,1 · Опросы + 0,2 · Проекты + 0,05 · Решение задач + 0,05 · Решение задач + 0,5 · Экзамен</t>
+  </si>
+  <si>
     <t>Климов Алексей Сергеевич</t>
   </si>
   <si>
     <t>asklimov@hse.ru</t>
-  </si>
-  <si>
-    <t>Оценка за 4 модуль = 0,1 · Опросы + 0,1 · Опросы + 0,2 · Проекты + 0,05 · Решение задач + 0,05 · Решение задач + 0,5 · Экзамен</t>
-  </si>
-  <si>
-    <t>Оценка за 2 модуль = 0,15 · Опросы + 0,15 · Опросы + 0,1 · Решение задач + 0,1 · Решение задач + 0,5 · Экзамен</t>
   </si>
 </sst>
 </file>
@@ -522,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +613,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -568,12 +625,12 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -590,7 +647,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -604,7 +661,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -612,7 +669,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -624,12 +681,12 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -638,144 +695,233 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
-        <v>35</v>
+      <c r="E15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E19" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -791,9 +937,17 @@
     <hyperlink ref="C18" r:id="rId9" display="mailto:tkonstantinova@hse.ru" xr:uid="{E009D5C5-64D1-4B17-8B55-8C97120B260B}"/>
     <hyperlink ref="C20" r:id="rId10" display="mailto:tkonstantinova@hse.ru" xr:uid="{9936C60D-61CA-4111-B21E-24F2AAAAD1E3}"/>
     <hyperlink ref="C23" r:id="rId11" display="mailto:agorodnova@hse.ru" xr:uid="{2F934F98-7099-4E99-B33E-3224723025DA}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{3BA0A407-BC7A-4C1F-A8BD-C81FA02E5D85}"/>
+    <hyperlink ref="C26" r:id="rId12" xr:uid="{6DE86178-6AFD-4592-94E5-E3D60C363F58}"/>
+    <hyperlink ref="C33" r:id="rId13" xr:uid="{7F7508EA-F33F-479C-AC18-24C88B787D7A}"/>
+    <hyperlink ref="C27" r:id="rId14" xr:uid="{718D1DCC-67CD-4959-B889-0F75A1C0B2C9}"/>
+    <hyperlink ref="C28" r:id="rId15" xr:uid="{BDE085E3-C3E1-49D2-B47C-60D326D218DF}"/>
+    <hyperlink ref="C29" r:id="rId16" xr:uid="{61FC55A8-F635-4E98-AD91-EF77056BDB66}"/>
+    <hyperlink ref="C30" r:id="rId17" xr:uid="{0F31E435-5876-419D-B3AB-37F050139060}"/>
+    <hyperlink ref="C31" r:id="rId18" xr:uid="{EA26F35B-3FB0-4276-8C04-FA760FD2DB00}"/>
+    <hyperlink ref="C32" r:id="rId19" xr:uid="{C49E92B4-4DFE-4933-A42D-07DC57C64036}"/>
+    <hyperlink ref="C12" r:id="rId20" xr:uid="{0347F1B3-FCFC-40B5-BA51-A41FAFC947D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>